--- a/TWE Environmental Monitoring & Inspection.xlsx
+++ b/TWE Environmental Monitoring & Inspection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdonaldson\ArcGIS\My Survey Designs\TWE Environmental Monitoring &amp; Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F574C6-DDBB-47B2-9FE8-A323119B5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034ED371-05A3-4587-B441-F240F4F25F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" tabRatio="542" activeTab="2" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="2728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="2730">
   <si>
     <t>Question type</t>
   </si>
@@ -8564,6 +8564,12 @@
   </si>
   <si>
     <t>TWE Environmental Monitoring &amp; Inspection (v1.3.1)</t>
+  </si>
+  <si>
+    <t>deleteMe</t>
+  </si>
+  <si>
+    <t>DeleteMe</t>
   </si>
 </sst>
 </file>
@@ -9088,27 +9094,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDD99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEECC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFC6ECD9"/>
         </patternFill>
       </fill>
@@ -9145,6 +9130,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFECF9F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDD99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEECC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9242,6 +9248,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFEECC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6ECD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDD99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
@@ -9264,20 +9298,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6ECD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDD99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9347,6 +9367,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDD99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECF9F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFEECC"/>
         </patternFill>
       </fill>
@@ -9361,6 +9402,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC6ECD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEECC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDD99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
@@ -9369,6 +9438,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFDD99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEECC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECF9F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6ECD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDD99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9403,7 +9507,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFDD99"/>
+          <bgColor rgb="FFECF9F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6ECD9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9417,112 +9528,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6ECD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6ECD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFDD99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEECC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECF9F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDD99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEECC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6ECD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECF9F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDD99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEECC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6ECD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECF9F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9591,7 +9597,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFFFEECC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9605,7 +9611,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEECC"/>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10332,9 +10338,9 @@
   </sheetPr>
   <dimension ref="A1:AM160"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U76" sqref="U76"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10590,7 +10596,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:39" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>2729</v>
+      </c>
+    </row>
     <row r="11" spans="1:39" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:39" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="60"/>
@@ -13011,26 +13027,26 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AL16 A12:AM33 A30:AL36 A38:AL44 A46:AL67 A68:M75 O68:AM75 A76:AM77 A95:J95 L95:AM95 A96:AM96 A97:J97 L97:AM97 A98:AM161 A162:I162 L162:AM162 A163:AM981 A79:AM81 A83:AM94 W82:AM82 A82:U82">
-    <cfRule type="expression" dxfId="79" priority="432" stopIfTrue="1">
-      <formula>$A1="begin repeat"</formula>
+  <conditionalFormatting sqref="A1:AL16 A12:AM33 A30:AL36 A38:AL44 A46:AL67 A68:M75 O68:AM75 A76:AM77 A79:AM81 A82:U82 W82:AM82 A83:AM94 A95:J95 L95:AM95 A96:AM96 A97:J97 L97:AM97 A98:AM161 A162:I162 L162:AM162 A163:AM981">
+    <cfRule type="expression" dxfId="79" priority="434" stopIfTrue="1">
+      <formula>$A1="calculate"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="78" priority="433" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="434" stopIfTrue="1">
-      <formula>$A1="calculate"</formula>
+    <cfRule type="expression" dxfId="77" priority="432" stopIfTrue="1">
+      <formula>$A1="begin repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="435" stopIfTrue="1">
       <formula>$A1="date"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:AL67 A1:AL16 A12:AM33 A30:AL36 A38:AL44 A68:M75 O68:AM75 A76:AM77 A95:J95 L95:AM95 A96:AM96 A97:J97 L97:AM97 A98:AM161 A162:I162 L162:AM162 A163:AM981 A79:AM81 A83:AM94 W82:AM82 A82:U82">
+  <conditionalFormatting sqref="A46:AL67 A1:AL16 A12:AM33 A30:AL36 A38:AL44 A68:M75 O68:AM75 A76:AM77 A79:AM81 A82:U82 W82:AM82 A83:AM94 A95:J95 L95:AM95 A96:AM96 A97:J97 L97:AM97 A98:AM161 A162:I162 L162:AM162 A163:AM981">
     <cfRule type="expression" dxfId="76" priority="431" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AM36 A38:AM44 A46:AM67 A68:M75 O68:AM75 A76:AM77 A152:AM160 A79:AM81 A83:AM91 W82:AM82 A82:U82">
+  <conditionalFormatting sqref="A1:AM36 A38:AM44 A46:AM67 A68:M75 O68:AM75 A76:AM77 A79:AM81 A82:U82 W82:AM82 A83:AM91 A152:AM160">
     <cfRule type="expression" dxfId="75" priority="507" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
@@ -13047,7 +13063,7 @@
       <formula>$A1="date"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:AM161 A1:AM36 A38:AM44 A46:AM67 A68:M75 O68:AM75 A76:AM77 A95:J95 L95:AM95 A96:AM96 A97:J97 L97:AM97 A162:I162 L162:AM162 A163:AM981 A79:AM81 A83:AM94 W82:AM82 A82:U82">
+  <conditionalFormatting sqref="A98:AM161 A1:AM36 A38:AM44 A46:AM67 A68:M75 O68:AM75 A76:AM77 A79:AM81 A82:U82 W82:AM82 A83:AM94 A95:J95 L95:AM95 A96:AM96 A97:J97 L97:AM97 A162:I162 L162:AM162 A163:AM981">
     <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
@@ -13059,17 +13075,17 @@
     <cfRule type="duplicateValues" dxfId="69" priority="978"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="68" priority="1006" stopIfTrue="1">
-      <formula>$A56="begin group"</formula>
+    <cfRule type="expression" dxfId="68" priority="1009" stopIfTrue="1">
+      <formula>$A56="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1007" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="1008" stopIfTrue="1">
+      <formula>$A56="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="1007" stopIfTrue="1">
       <formula>$A56="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1008" stopIfTrue="1">
-      <formula>$A56="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="1009" stopIfTrue="1">
-      <formula>$A56="end repeat"</formula>
+    <cfRule type="expression" dxfId="65" priority="1006" stopIfTrue="1">
+      <formula>$A56="begin group"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="1010" stopIfTrue="1">
       <formula>$A56="calculate"</formula>
@@ -13088,60 +13104,60 @@
     <cfRule type="expression" dxfId="61" priority="57" stopIfTrue="1">
       <formula>$A57="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58" stopIfTrue="1">
-      <formula>$A57="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="59" stopIfTrue="1">
       <formula>$A57="calculate"</formula>
     </cfRule>
     <cfRule type="expression" priority="60" stopIfTrue="1">
       <formula>$A57="date"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
+      <formula>$A57="end repeat"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K97">
-    <cfRule type="expression" dxfId="58" priority="1055" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1065" stopIfTrue="1">
+      <formula>$A95="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="1055" stopIfTrue="1">
       <formula>$A95="begin group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1060" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="1060" stopIfTrue="1">
       <formula>$A95="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="1061" stopIfTrue="1">
       <formula>$A95="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1062" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1062" stopIfTrue="1">
       <formula>$A95="calculate"</formula>
     </cfRule>
     <cfRule type="expression" priority="1063" stopIfTrue="1">
       <formula>$A95="date"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="1065" stopIfTrue="1">
-      <formula>$A95="end group"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69:N72 N74:N75">
-    <cfRule type="expression" dxfId="53" priority="751" stopIfTrue="1">
-      <formula>$A68="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="752" stopIfTrue="1">
-      <formula>$A68="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="753" stopIfTrue="1">
-      <formula>$A68="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="754" stopIfTrue="1">
-      <formula>$A68="calculate"</formula>
-    </cfRule>
     <cfRule type="expression" priority="755" stopIfTrue="1">
       <formula>$A68="date"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="762" stopIfTrue="1">
-      <formula>$A68="begin group"</formula>
+    <cfRule type="expression" dxfId="53" priority="754" stopIfTrue="1">
+      <formula>$A68="calculate"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="771" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="753" stopIfTrue="1">
+      <formula>$A68="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="752" stopIfTrue="1">
+      <formula>$A68="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="751" stopIfTrue="1">
       <formula>$A68="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="772" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="771" stopIfTrue="1">
+      <formula>$A68="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="772" stopIfTrue="1">
       <formula>$A68="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="762" stopIfTrue="1">
+      <formula>$A68="begin group"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="773" stopIfTrue="1">
       <formula>$A68="end repeat"</formula>
@@ -13154,70 +13170,70 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69:N75">
-    <cfRule type="expression" dxfId="44" priority="783" stopIfTrue="1">
-      <formula>$A68="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="786" stopIfTrue="1">
-      <formula>$A68="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="789" stopIfTrue="1">
       <formula>$A68="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="792" stopIfTrue="1">
       <formula>$A68="calculate"</formula>
     </cfRule>
     <cfRule type="expression" priority="795" stopIfTrue="1">
       <formula>$A68="date"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="42" priority="783" stopIfTrue="1">
+      <formula>$A68="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="786" stopIfTrue="1">
+      <formula>$A68="begin repeat"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="expression" dxfId="40" priority="816" stopIfTrue="1">
-      <formula>$A70="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="817" stopIfTrue="1">
-      <formula>$A70="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="818" stopIfTrue="1">
       <formula>$A70="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="819" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="819" stopIfTrue="1">
       <formula>$A70="calculate"</formula>
     </cfRule>
     <cfRule type="expression" priority="820" stopIfTrue="1">
       <formula>$A70="date"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="821" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="821" stopIfTrue="1">
       <formula>$A70="begin group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="822" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="822" stopIfTrue="1">
       <formula>$A70="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="823" stopIfTrue="1">
       <formula>$A70="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1049" stopIfTrue="1">
+      <formula>$A70="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="1050" stopIfTrue="1">
+      <formula>$A70="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="1051" stopIfTrue="1">
       <formula>$A70="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1052" stopIfTrue="1">
+      <formula>$A70="calculate"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="1053" stopIfTrue="1">
+      <formula>$A70="date"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="824" stopIfTrue="1">
+      <formula>$A70="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="825" stopIfTrue="1">
       <formula>$A70="calculate"</formula>
     </cfRule>
     <cfRule type="expression" priority="826" stopIfTrue="1">
       <formula>$A70="date"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="816" stopIfTrue="1">
       <formula>$A70="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="817" stopIfTrue="1">
       <formula>$A70="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1051" stopIfTrue="1">
-      <formula>$A70="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1052" stopIfTrue="1">
-      <formula>$A70="calculate"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1053" stopIfTrue="1">
-      <formula>$A70="date"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72">
@@ -13232,9 +13248,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="1036" stopIfTrue="1">
       <formula>$A70="calculate"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1037" stopIfTrue="1">
-      <formula>$A70="date"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="1038" stopIfTrue="1">
       <formula>$A70="begin group"</formula>
@@ -13266,43 +13279,46 @@
     <cfRule type="expression" dxfId="15" priority="1047" stopIfTrue="1">
       <formula>$A70="calculate"</formula>
     </cfRule>
+    <cfRule type="expression" priority="1037" stopIfTrue="1">
+      <formula>$A70="date"</formula>
+    </cfRule>
     <cfRule type="expression" priority="1048" stopIfTrue="1">
       <formula>$A70="date"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="expression" dxfId="14" priority="943" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="950" stopIfTrue="1">
+      <formula>$A72="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="951" stopIfTrue="1">
+      <formula>$A72="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="952" stopIfTrue="1">
+      <formula>$A72="calculate"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="953" stopIfTrue="1">
+      <formula>$A72="date"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="943" stopIfTrue="1">
       <formula>$A72="begin group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="944" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="944" stopIfTrue="1">
       <formula>$A72="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="945" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="945" stopIfTrue="1">
       <formula>$A72="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="946" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="946" stopIfTrue="1">
       <formula>$A72="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="947" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="947" stopIfTrue="1">
       <formula>$A72="calculate"</formula>
     </cfRule>
     <cfRule type="expression" priority="948" stopIfTrue="1">
       <formula>$A72="date"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="949" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="949" stopIfTrue="1">
       <formula>$A72="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="950" stopIfTrue="1">
-      <formula>$A72="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="951" stopIfTrue="1">
-      <formula>$A72="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="952" stopIfTrue="1">
-      <formula>$A72="calculate"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="953" stopIfTrue="1">
-      <formula>$A72="date"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1206" yWindow="619" count="7">
@@ -25896,8 +25912,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
